--- a/data/trans_orig/P16B10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70054322-55ED-4669-8F35-76B86F79D290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B7361DA-9AA5-423B-9D91-44A70C18F2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14941727-3524-4771-8164-13D5875D266F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0A941C8-7B57-4436-ACD8-4FFCAA0FA5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="147">
   <si>
     <t>Porcentajes de medicinas para el corazón recetados en 2007 (Tasa respuesta: 5,25%)</t>
   </si>
@@ -172,7 +172,7 @@
     <t>95,6%</t>
   </si>
   <si>
-    <t>84,94%</t>
+    <t>86,17%</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -181,13 +181,13 @@
     <t>97,18%</t>
   </si>
   <si>
-    <t>90,64%</t>
+    <t>89,96%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>15,06%</t>
+    <t>13,83%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -196,7 +196,7 @@
     <t>2,82%</t>
   </si>
   <si>
-    <t>9,36%</t>
+    <t>10,04%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -205,97 +205,97 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>95,67%</t>
+    <t>93,78%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>90,92%</t>
+    <t>92,01%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>4,33%</t>
+    <t>6,22%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>9,08%</t>
+    <t>7,99%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -433,13 +433,13 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>95,7%</t>
+    <t>95,58%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>97,54%</t>
+    <t>97,53%</t>
   </si>
   <si>
     <t>1,42%</t>
@@ -448,13 +448,13 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,3%</t>
+    <t>4,42%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>2,46%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>99,05%</t>
@@ -463,28 +463,22 @@
     <t>98,9%</t>
   </si>
   <si>
-    <t>96,56%</t>
+    <t>96,08%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,38%</t>
-  </si>
-  <si>
     <t>0,95%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,44%</t>
+    <t>3,92%</t>
   </si>
   <si>
     <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
   </si>
 </sst>
 </file>
@@ -896,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6195E5E9-5C44-480D-B3D7-ED2661BBF38D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B31264-03EB-4D60-8186-EA5C9630D78A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2109,7 +2103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CCB7F7-CF14-4E8B-8858-29F9DD26C8F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34510BEC-EB17-41EF-B4B1-774A150C8555}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3328,7 +3322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6111C2DF-8166-453B-B92B-80E85A23828B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C06C72F-0134-41B3-B5F8-B110A03C2A90}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4409,7 +4403,7 @@
         <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -4433,7 +4427,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -4442,13 +4436,13 @@
         <v>2037</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4457,13 +4451,13 @@
         <v>2037</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B7361DA-9AA5-423B-9D91-44A70C18F2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B054768F-7731-44C7-BF6A-279680121BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0A941C8-7B57-4436-ACD8-4FFCAA0FA5F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1154A366-3DE7-412E-B45D-B78B1C40BC79}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="151">
   <si>
     <t>Porcentajes de medicinas para el corazón recetados en 2007 (Tasa respuesta: 5,25%)</t>
   </si>
@@ -121,13 +121,13 @@
     <t>79,87%</t>
   </si>
   <si>
-    <t>30,82%</t>
+    <t>20,88%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>54,94%</t>
+    <t>53,34%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -136,13 +136,13 @@
     <t>20,13%</t>
   </si>
   <si>
-    <t>69,18%</t>
+    <t>79,12%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>45,06%</t>
+    <t>46,66%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -172,7 +172,7 @@
     <t>95,6%</t>
   </si>
   <si>
-    <t>86,17%</t>
+    <t>85,65%</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -181,13 +181,13 @@
     <t>97,18%</t>
   </si>
   <si>
-    <t>89,96%</t>
+    <t>90,02%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>13,83%</t>
+    <t>14,35%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -196,7 +196,7 @@
     <t>2,82%</t>
   </si>
   <si>
-    <t>10,04%</t>
+    <t>9,98%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -205,97 +205,103 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>93,78%</t>
+    <t>95,45%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>92,01%</t>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>6,22%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>7,99%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -382,7 +388,7 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>Porcentajes de medicinas para el corazón recetados en 2015 (Tasa respuesta: 5,43%)</t>
+    <t>Porcentajes de medicinas para el corazón recetados en 2016 (Tasa respuesta: 5,43%)</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -433,13 +439,13 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>95,58%</t>
+    <t>95,09%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>97,53%</t>
+    <t>97,38%</t>
   </si>
   <si>
     <t>1,42%</t>
@@ -448,13 +454,13 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,42%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>99,05%</t>
@@ -463,22 +469,28 @@
     <t>98,9%</t>
   </si>
   <si>
-    <t>96,08%</t>
+    <t>96,24%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
+    <t>98,07%</t>
+  </si>
+  <si>
     <t>0,95%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,92%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
 </sst>
 </file>
@@ -890,7 +902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B31264-03EB-4D60-8186-EA5C9630D78A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6327AEF-0DFD-4391-9A94-2261717EC0D5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1804,7 +1816,7 @@
         <v>57</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M19" s="7">
         <v>232</v>
@@ -1813,13 +1825,13 @@
         <v>230706</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,13 +1846,13 @@
         <v>896</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -1849,13 +1861,13 @@
         <v>3318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -1864,13 +1876,13 @@
         <v>4214</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,13 +1950,13 @@
         <v>172817</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>155</v>
@@ -1953,13 +1965,13 @@
         <v>160949</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
@@ -1968,13 +1980,13 @@
         <v>333765</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,13 +2001,13 @@
         <v>2740</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2004,13 +2016,13 @@
         <v>5371</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2019,13 +2031,13 @@
         <v>8111</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,7 +2093,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34510BEC-EB17-41EF-B4B1-774A150C8555}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCA9916-7AD7-49F1-985B-0E0AAADFBF45}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2120,7 +2132,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2260,7 +2272,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2314,7 +2326,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,7 +2397,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2415,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2439,7 +2451,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2469,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,7 +2567,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2609,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2710,7 +2722,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2725,7 +2737,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2764,7 +2776,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2779,7 +2791,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,7 +2862,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2880,7 +2892,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2904,7 +2916,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2934,7 +2946,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,7 +3017,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3020,7 +3032,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3029,13 +3041,13 @@
         <v>225</v>
       </c>
       <c r="N19" s="7">
-        <v>245024</v>
+        <v>245023</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3059,7 +3071,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3074,7 +3086,7 @@
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3089,7 +3101,7 @@
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,7 +3143,7 @@
         <v>225</v>
       </c>
       <c r="N21" s="7">
-        <v>245024</v>
+        <v>245023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -3160,7 +3172,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3175,7 +3187,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -3190,7 +3202,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3214,7 +3226,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3229,7 +3241,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3244,7 +3256,7 @@
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,7 +3312,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3322,7 +3334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C06C72F-0134-41B3-B5F8-B110A03C2A90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58D9A23-4D7B-4A2A-AF06-99A3983757BA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3339,7 +3351,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3598,7 +3610,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3613,7 +3625,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3628,7 +3640,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3652,7 +3664,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3667,7 +3679,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3682,7 +3694,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,7 +3765,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3768,7 +3780,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3783,7 +3795,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3807,7 +3819,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3822,7 +3834,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3837,7 +3849,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,7 +3920,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3923,7 +3935,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3938,7 +3950,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3962,7 +3974,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3977,7 +3989,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3992,7 +4004,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,7 +4075,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4093,7 +4105,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4117,7 +4129,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4147,7 +4159,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,7 +4230,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4230,10 +4242,10 @@
         <v>143792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4245,10 +4257,10 @@
         <v>269460</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4272,7 +4284,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4281,13 +4293,13 @@
         <v>2037</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4296,13 +4308,13 @@
         <v>2037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,7 +4385,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -4385,10 +4397,10 @@
         <v>183062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -4400,10 +4412,10 @@
         <v>383469</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -4427,7 +4439,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -4436,13 +4448,13 @@
         <v>2037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4451,13 +4463,13 @@
         <v>2037</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,7 +4525,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B054768F-7731-44C7-BF6A-279680121BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33308F1A-AD7A-4678-A977-08D7CE93F177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1154A366-3DE7-412E-B45D-B78B1C40BC79}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A687443-ABE0-40C5-954F-D6F4AE69F5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="149">
   <si>
     <t>Porcentajes de medicinas para el corazón recetados en 2007 (Tasa respuesta: 5,25%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -121,13 +121,13 @@
     <t>79,87%</t>
   </si>
   <si>
-    <t>20,88%</t>
+    <t>30,82%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>53,34%</t>
+    <t>54,94%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -136,13 +136,13 @@
     <t>20,13%</t>
   </si>
   <si>
-    <t>79,12%</t>
+    <t>69,18%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>46,66%</t>
+    <t>45,06%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -172,7 +172,7 @@
     <t>95,6%</t>
   </si>
   <si>
-    <t>85,65%</t>
+    <t>84,94%</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -181,13 +181,13 @@
     <t>97,18%</t>
   </si>
   <si>
-    <t>90,02%</t>
+    <t>90,64%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>14,35%</t>
+    <t>15,06%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -196,7 +196,7 @@
     <t>2,82%</t>
   </si>
   <si>
-    <t>9,98%</t>
+    <t>9,36%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -205,103 +205,97 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>95,45%</t>
+    <t>95,67%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>90,92%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>4,55%</t>
+    <t>4,33%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>9,08%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -439,13 +433,13 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>95,09%</t>
+    <t>95,7%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>97,38%</t>
+    <t>97,54%</t>
   </si>
   <si>
     <t>1,42%</t>
@@ -454,13 +448,13 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>4,3%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>99,05%</t>
@@ -469,13 +463,13 @@
     <t>98,9%</t>
   </si>
   <si>
-    <t>96,24%</t>
+    <t>96,56%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,07%</t>
+    <t>98,38%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -484,13 +478,13 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>3,44%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>1,62%</t>
   </si>
 </sst>
 </file>
@@ -902,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6327AEF-0DFD-4391-9A94-2261717EC0D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AB8803-320E-486A-BC16-E6C9B9680683}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1816,7 +1810,7 @@
         <v>57</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M19" s="7">
         <v>232</v>
@@ -1825,13 +1819,13 @@
         <v>230706</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,13 +1840,13 @@
         <v>896</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -1861,13 +1855,13 @@
         <v>3318</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -1876,13 +1870,13 @@
         <v>4214</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1950,13 +1944,13 @@
         <v>172817</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>155</v>
@@ -1965,13 +1959,13 @@
         <v>160949</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
@@ -1980,13 +1974,13 @@
         <v>333765</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,13 +1995,13 @@
         <v>2740</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2016,13 +2010,13 @@
         <v>5371</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2031,13 +2025,13 @@
         <v>8111</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,7 +2087,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2115,7 +2109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCA9916-7AD7-49F1-985B-0E0AAADFBF45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40293F4F-9D18-4F46-AD9B-84FFBDD8701A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2132,7 +2126,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2272,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2326,7 +2320,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,7 +2391,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2427,7 +2421,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2451,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2481,7 +2475,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,7 +2561,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2621,7 +2615,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2722,7 +2716,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2737,7 +2731,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2776,7 +2770,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2791,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,7 +2856,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2892,7 +2886,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2916,7 +2910,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2946,7 +2940,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,7 +3011,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3032,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3041,13 +3035,13 @@
         <v>225</v>
       </c>
       <c r="N19" s="7">
-        <v>245023</v>
+        <v>245024</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3071,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3086,7 +3080,7 @@
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3101,7 +3095,7 @@
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,7 +3137,7 @@
         <v>225</v>
       </c>
       <c r="N21" s="7">
-        <v>245023</v>
+        <v>245024</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -3172,7 +3166,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3187,7 +3181,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -3202,7 +3196,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3226,7 +3220,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3241,7 +3235,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3256,7 +3250,7 @@
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,7 +3306,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3334,7 +3328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58D9A23-4D7B-4A2A-AF06-99A3983757BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545BAE06-F5E8-42D6-A5E4-DF7E008BA246}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3351,7 +3345,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3610,7 +3604,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3625,7 +3619,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3640,7 +3634,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3664,7 +3658,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3679,7 +3673,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3694,7 +3688,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,7 +3759,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3780,7 +3774,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3795,7 +3789,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3819,7 +3813,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3834,7 +3828,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3849,7 +3843,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,7 +3914,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3935,7 +3929,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3950,7 +3944,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3974,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3989,7 +3983,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4004,7 +3998,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,7 +4069,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4105,7 +4099,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4129,7 +4123,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4159,7 +4153,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,7 +4224,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4242,10 +4236,10 @@
         <v>143792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4257,10 +4251,10 @@
         <v>269460</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4284,7 +4278,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4293,13 +4287,13 @@
         <v>2037</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4308,13 +4302,13 @@
         <v>2037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,7 +4379,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -4397,10 +4391,10 @@
         <v>183062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -4412,10 +4406,10 @@
         <v>383469</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -4439,7 +4433,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -4448,13 +4442,13 @@
         <v>2037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4463,13 +4457,13 @@
         <v>2037</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,7 +4519,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33308F1A-AD7A-4678-A977-08D7CE93F177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9C896B2-D25E-4A9B-B237-690F5CED025D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A687443-ABE0-40C5-954F-D6F4AE69F5FE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8B8C974A-9AF1-48D4-8AB8-2E095A5943D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="170">
   <si>
     <t>Porcentajes de medicinas para el corazón recetados en 2007 (Tasa respuesta: 5,25%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -97,7 +97,7 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>53,07%</t>
@@ -112,7 +112,7 @@
     <t>31,16%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -145,7 +145,7 @@
     <t>45,06%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -166,7 +166,7 @@
     <t>7,06%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>95,6%</t>
@@ -199,49 +199,82 @@
     <t>9,36%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
   </si>
   <si>
     <t>98,44%</t>
@@ -346,22 +379,40 @@
     <t>3,09%</t>
   </si>
   <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>98,84%</t>
@@ -415,46 +466,58 @@
     <t>5,96%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>99,05%</t>
@@ -896,8 +959,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AB8803-320E-486A-BC16-E6C9B9680683}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CAD916-78B6-4922-B88B-017B36CD9543}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1783,49 +1846,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>113566</v>
+        <v>50582</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>51</v>
+      </c>
+      <c r="I19" s="7">
+        <v>47918</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>113</v>
-      </c>
-      <c r="I19" s="7">
-        <v>117139</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="7">
+        <v>104</v>
+      </c>
+      <c r="N19" s="7">
+        <v>98500</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="7">
-        <v>232</v>
-      </c>
-      <c r="N19" s="7">
-        <v>230706</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,49 +1897,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
-        <v>896</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>933</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>933</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3318</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4214</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,10 +1948,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="D21" s="7">
-        <v>114462</v>
+        <v>50582</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -1900,10 +1963,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="I21" s="7">
-        <v>120457</v>
+        <v>48851</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -1915,10 +1978,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="N21" s="7">
-        <v>234920</v>
+        <v>99433</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -1932,55 +1995,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7">
-        <v>172817</v>
+        <v>62984</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>62</v>
+      </c>
+      <c r="I22" s="7">
+        <v>69221</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="7">
+        <v>128</v>
+      </c>
+      <c r="N22" s="7">
+        <v>132206</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="7">
-        <v>155</v>
-      </c>
-      <c r="I22" s="7">
-        <v>160949</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M22" s="7">
-        <v>334</v>
-      </c>
-      <c r="N22" s="7">
-        <v>333765</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,49 +2052,49 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>896</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2386</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" s="7">
         <v>3</v>
       </c>
-      <c r="D23" s="7">
-        <v>2740</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="N23" s="7">
+        <v>3281</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="7">
-        <v>5</v>
-      </c>
-      <c r="I23" s="7">
-        <v>5371</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" s="7">
-        <v>8</v>
-      </c>
-      <c r="N23" s="7">
-        <v>8111</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,63 +2103,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>67</v>
+      </c>
+      <c r="D24" s="7">
+        <v>63880</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>64</v>
+      </c>
+      <c r="I24" s="7">
+        <v>71607</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>131</v>
+      </c>
+      <c r="N24" s="7">
+        <v>135487</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>179</v>
+      </c>
+      <c r="D25" s="7">
+        <v>172817</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="7">
+        <v>155</v>
+      </c>
+      <c r="I25" s="7">
+        <v>160949</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="7">
+        <v>334</v>
+      </c>
+      <c r="N25" s="7">
+        <v>333765</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2740</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5371</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8</v>
+      </c>
+      <c r="N26" s="7">
+        <v>8111</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>182</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>175557</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>160</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>166320</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>342</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>341876</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>86</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2109,8 +2328,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40293F4F-9D18-4F46-AD9B-84FFBDD8701A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF4265D-4E49-4620-B517-34A881B7FA39}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2126,7 +2345,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2266,7 +2485,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2320,7 +2539,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2421,7 +2640,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2445,7 +2664,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2475,7 +2694,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,7 +2780,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2615,7 +2834,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2716,7 +2935,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2731,7 +2950,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2770,7 +2989,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2785,7 +3004,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,7 +3075,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2886,7 +3105,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2910,7 +3129,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2940,7 +3159,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,46 +3221,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7">
-        <v>120935</v>
+        <v>46387</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
+        <v>36</v>
+      </c>
+      <c r="I19" s="7">
+        <v>36955</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>80</v>
+      </c>
+      <c r="N19" s="7">
+        <v>83342</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="I19" s="7">
-        <v>124088</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>225</v>
-      </c>
-      <c r="N19" s="7">
-        <v>245024</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3065,7 +3284,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3080,7 +3299,7 @@
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3095,7 +3314,7 @@
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,10 +3323,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D21" s="7">
-        <v>120935</v>
+        <v>46387</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -3119,10 +3338,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="I21" s="7">
-        <v>124088</v>
+        <v>36955</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -3134,10 +3353,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="N21" s="7">
-        <v>245024</v>
+        <v>83342</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -3151,52 +3370,52 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7">
-        <v>178622</v>
+        <v>74548</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="I22" s="7">
-        <v>170460</v>
+        <v>87133</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M22" s="7">
-        <v>324</v>
+        <v>145</v>
       </c>
       <c r="N22" s="7">
-        <v>349083</v>
+        <v>161681</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3220,7 +3439,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3235,7 +3454,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3250,7 +3469,7 @@
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,63 +3478,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>66</v>
+      </c>
+      <c r="D24" s="7">
+        <v>74548</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>79</v>
+      </c>
+      <c r="I24" s="7">
+        <v>87133</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>145</v>
+      </c>
+      <c r="N24" s="7">
+        <v>161681</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
         <v>165</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>178622</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7">
         <v>159</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I25" s="7">
         <v>170460</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="7">
         <v>324</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N25" s="7">
         <v>349083</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>86</v>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>165</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178622</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
+        <v>159</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170460</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
+        <v>324</v>
+      </c>
+      <c r="N27" s="7">
+        <v>349083</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3328,8 +3703,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545BAE06-F5E8-42D6-A5E4-DF7E008BA246}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26155DA-2850-4864-92BE-A21FF5427129}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3345,7 +3720,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3604,7 +3979,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3619,7 +3994,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3634,7 +4009,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3658,7 +4033,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3673,7 +4048,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3688,7 +4063,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,7 +4134,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3774,7 +4149,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3789,7 +4164,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3813,7 +4188,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3828,7 +4203,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3843,7 +4218,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,7 +4289,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3929,7 +4304,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3944,7 +4319,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3968,7 +4343,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3983,7 +4358,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3998,7 +4373,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4444,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4099,7 +4474,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4123,7 +4498,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4153,7 +4528,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,46 +4590,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="D19" s="7">
-        <v>125668</v>
+        <v>65890</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>143792</v>
+        <v>48638</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M19" s="7">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="N19" s="7">
-        <v>269460</v>
+        <v>114528</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4278,7 +4653,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4287,13 +4662,13 @@
         <v>2037</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4302,13 +4677,13 @@
         <v>2037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,10 +4692,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="D21" s="7">
-        <v>125668</v>
+        <v>65890</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -4332,10 +4707,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="I21" s="7">
-        <v>145829</v>
+        <v>50675</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -4347,10 +4722,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="N21" s="7">
-        <v>271497</v>
+        <v>116565</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -4364,55 +4739,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>200408</v>
+        <v>59778</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="7">
+        <v>71</v>
+      </c>
+      <c r="I22" s="7">
+        <v>95154</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="I22" s="7">
-        <v>183062</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="7">
         <v>141</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="7">
-        <v>355</v>
-      </c>
       <c r="N22" s="7">
-        <v>383469</v>
+        <v>154932</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,37 +4808,37 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>2037</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>2037</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,63 +4847,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>70</v>
+      </c>
+      <c r="D24" s="7">
+        <v>59778</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>71</v>
+      </c>
+      <c r="I24" s="7">
+        <v>95154</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>141</v>
+      </c>
+      <c r="N24" s="7">
+        <v>154932</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
         <v>200</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>200408</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7">
+        <v>155</v>
+      </c>
+      <c r="I25" s="7">
+        <v>183062</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="7">
+        <v>355</v>
+      </c>
+      <c r="N25" s="7">
+        <v>383469</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2037</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2037</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>200</v>
+      </c>
+      <c r="D27" s="7">
+        <v>200408</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>157</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>185099</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>357</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>385506</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>86</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
